--- a/supplementary_material/BlacklistUncertainty_paper_supplementaryB.xlsx
+++ b/supplementary_material/BlacklistUncertainty_paper_supplementaryB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipotsdamde-my.sharepoint.com/personal/valen_holle_uni-potsdam_de/Documents/uncertainty_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{163CC206-F62E-4074-81C2-426AF6C4C137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8F5A0F3-42FE-44E0-9F76-9041D8778F4B}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{163CC206-F62E-4074-81C2-426AF6C4C137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{798ACEB4-4C39-4DDB-8523-6F78EDEDCCDF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" activeTab="3" xr2:uid="{986B0934-98EC-46CF-8E18-BCB2A779E748}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{986B0934-98EC-46CF-8E18-BCB2A779E748}"/>
   </bookViews>
   <sheets>
     <sheet name="Occurrence numbers" sheetId="5" r:id="rId1"/>
@@ -861,29 +861,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Table S2: Percentages of climatic and edaphic data coverage of Pacific island groups.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The Pacific island groups (n = 50) based on Wohlwend et al. (2021), ordered in descending island group size are shown. Additionally, information on the percentage of available climatic and edaphic data per island group is displayed. This information was obtained by relating the size of each island group covered by data with their whole island group size. Due to potential differences in edaphic and climatic data coverage among the 14 and 19 variables respectively with regard to the same island group, the lowest coverage value per variable type was noted. The resulting information was used as a base to select the Pacific island groups that predictions were made to.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Table S3: Selected predictor variables for SDMs.</t>
     </r>
     <r>
@@ -932,29 +909,6 @@
   </si>
   <si>
     <t>rank3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Table S5: Final recommended blacklists</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. For all studied non-native plant species (n = 82), the blacklist ranking positions and corresponding establishment risk indicator values are shown based on all three blacklist definitions and based on the threshold that maximises the true skill statistic (maxTSS). The final recommended blacklists were constructed using ensemble models that incorporated global occurrence data and edapho-climatic environmental predictors.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -977,6 +931,52 @@
         <scheme val="minor"/>
       </rPr>
       <t>erived from Wohlwend et al. (2021), the actual presence (1) or absence (0) on an island group is shown for all studied non-native plant species (n = 82). Solely the island groups covered by climatic and edaphic environmental predictors are included. The last column contains the number of island groups with actual naturalised occurrences (out of 25 island groups).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table S2: Percentages of climatic and edaphic data coverage of Pacific island groups.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The Pacific island groups (n = 50) based on Wohlwend et al. (2021), ordered in descending island group size, are shown. Additionally, information on the percentage of available climatic and edaphic data per island group is displayed. This information was obtained by relating the size of each island group covered by data to their whole island group size. Due to potential differences in edaphic and climatic data coverage among the 14 and 15 variables, respectively with regard to the same island group, the lowest coverage value per variable type was noted. The resulting information was used as a base to select the Pacific island groups, for which predictions were made.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table S5: Final recommended blacklists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. For all studied non-native plant species (n = 82), the blacklist ranking positions and corresponding establishment risk scores are shown based on all three blacklist definitions and based on the threshold that maximises the True Skill Statistic (maxTSS). The final recommended blacklists were constructed using ensemble models that incorporated global occurrence data and edapho-climatic environmental predictors.</t>
     </r>
   </si>
 </sst>
@@ -2505,11 +2505,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2553,17 +2559,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2574,14 +2580,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3264,7 +3264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65180295-A58D-460E-B6D4-79215140E563}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
@@ -4991,7 +4991,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -5005,7 +5005,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="133" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="144" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B1" s="144"/>
       <c r="C1" s="144"/>
@@ -5742,7 +5742,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:B8"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5756,40 +5756,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="165" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
+      <c r="A1" s="151" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="157" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="159" t="s">
+      <c r="B2" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="161" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="161"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="163"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="140"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="162" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="164" t="s">
         <v>162</v>
       </c>
       <c r="D3" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="151" t="s">
+      <c r="E3" s="153" t="s">
         <v>163</v>
       </c>
       <c r="F3" s="137" t="s">
@@ -5798,19 +5798,19 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="156"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="153"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="155"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="157" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="39" t="s">
@@ -5828,7 +5828,7 @@
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="146"/>
-      <c r="B6" s="148"/>
+      <c r="B6" s="149"/>
       <c r="C6" s="12" t="s">
         <v>166</v>
       </c>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="146"/>
-      <c r="B7" s="148"/>
+      <c r="B7" s="149"/>
       <c r="C7" s="12" t="s">
         <v>167</v>
       </c>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="146"/>
-      <c r="B8" s="149"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="12" t="s">
         <v>168</v>
       </c>
@@ -5878,7 +5878,7 @@
       <c r="A9" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="148" t="s">
+      <c r="B9" s="149" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -5897,7 +5897,7 @@
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="146"/>
-      <c r="B10" s="148"/>
+      <c r="B10" s="149"/>
       <c r="C10" s="13" t="s">
         <v>171</v>
       </c>
@@ -5916,7 +5916,7 @@
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="146"/>
-      <c r="B11" s="148"/>
+      <c r="B11" s="149"/>
       <c r="C11" s="13" t="s">
         <v>174</v>
       </c>
@@ -5932,7 +5932,7 @@
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="147"/>
-      <c r="B12" s="149"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="23" t="s">
         <v>166</v>
       </c>
@@ -5951,7 +5951,7 @@
       <c r="A13" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="149" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -5971,7 +5971,7 @@
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="146"/>
-      <c r="B14" s="148"/>
+      <c r="B14" s="149"/>
       <c r="C14" s="13" t="s">
         <v>178</v>
       </c>
@@ -5989,7 +5989,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="146"/>
-      <c r="B15" s="148"/>
+      <c r="B15" s="149"/>
       <c r="C15" s="13" t="s">
         <v>166</v>
       </c>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="147"/>
-      <c r="B16" s="149"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="14" t="s">
         <v>179</v>
       </c>
@@ -6025,7 +6025,7 @@
       <c r="A17" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="148" t="s">
+      <c r="B17" s="149" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -6044,7 +6044,7 @@
     </row>
     <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="146"/>
-      <c r="B18" s="148"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="13" t="s">
         <v>167</v>
       </c>
@@ -6060,7 +6060,7 @@
     </row>
     <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="146"/>
-      <c r="B19" s="148"/>
+      <c r="B19" s="149"/>
       <c r="C19" s="13" t="s">
         <v>171</v>
       </c>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="147"/>
-      <c r="B20" s="149"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="14" t="s">
         <v>183</v>
       </c>
@@ -6096,7 +6096,7 @@
       <c r="A21" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="148" t="s">
+      <c r="B21" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -6114,7 +6114,7 @@
     </row>
     <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="146"/>
-      <c r="B22" s="148"/>
+      <c r="B22" s="149"/>
       <c r="C22" s="13" t="s">
         <v>167</v>
       </c>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="146"/>
-      <c r="B23" s="148"/>
+      <c r="B23" s="149"/>
       <c r="C23" s="13" t="s">
         <v>187</v>
       </c>
@@ -6148,7 +6148,7 @@
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="147"/>
-      <c r="B24" s="149"/>
+      <c r="B24" s="150"/>
       <c r="C24" s="14" t="s">
         <v>165</v>
       </c>
@@ -6167,7 +6167,7 @@
       <c r="A25" s="145" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="148" t="s">
+      <c r="B25" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="22" t="s">
@@ -6186,7 +6186,7 @@
     </row>
     <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="146"/>
-      <c r="B26" s="148"/>
+      <c r="B26" s="149"/>
       <c r="C26" s="13" t="s">
         <v>171</v>
       </c>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="146"/>
-      <c r="B27" s="148"/>
+      <c r="B27" s="149"/>
       <c r="C27" s="13" t="s">
         <v>166</v>
       </c>
@@ -6220,7 +6220,7 @@
     </row>
     <row r="28" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="147"/>
-      <c r="B28" s="149"/>
+      <c r="B28" s="150"/>
       <c r="C28" s="14" t="s">
         <v>179</v>
       </c>
@@ -6239,7 +6239,7 @@
       <c r="A29" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="149" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="22" t="s">
@@ -6257,7 +6257,7 @@
     </row>
     <row r="30" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="146"/>
-      <c r="B30" s="148"/>
+      <c r="B30" s="149"/>
       <c r="C30" s="13" t="s">
         <v>178</v>
       </c>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="146"/>
-      <c r="B31" s="148"/>
+      <c r="B31" s="149"/>
       <c r="C31" s="13" t="s">
         <v>183</v>
       </c>
@@ -6291,7 +6291,7 @@
     </row>
     <row r="32" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="147"/>
-      <c r="B32" s="149"/>
+      <c r="B32" s="150"/>
       <c r="C32" s="14" t="s">
         <v>168</v>
       </c>
@@ -6310,7 +6310,7 @@
       <c r="A33" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="148" t="s">
+      <c r="B33" s="149" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="22" t="s">
@@ -6328,7 +6328,7 @@
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="146"/>
-      <c r="B34" s="148"/>
+      <c r="B34" s="149"/>
       <c r="C34" s="13" t="s">
         <v>166</v>
       </c>
@@ -6345,7 +6345,7 @@
     </row>
     <row r="35" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="146"/>
-      <c r="B35" s="148"/>
+      <c r="B35" s="149"/>
       <c r="C35" s="13" t="s">
         <v>183</v>
       </c>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="36" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="147"/>
-      <c r="B36" s="149"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="23" t="s">
         <v>174</v>
       </c>
@@ -6381,7 +6381,7 @@
       <c r="A37" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="148" t="s">
+      <c r="B37" s="149" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -6399,7 +6399,7 @@
     </row>
     <row r="38" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="146"/>
-      <c r="B38" s="148"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="13" t="s">
         <v>180</v>
       </c>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="39" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="146"/>
-      <c r="B39" s="148"/>
+      <c r="B39" s="149"/>
       <c r="C39" s="13" t="s">
         <v>166</v>
       </c>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="40" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="147"/>
-      <c r="B40" s="149"/>
+      <c r="B40" s="150"/>
       <c r="C40" s="14" t="s">
         <v>183</v>
       </c>
@@ -6451,7 +6451,7 @@
       <c r="A41" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="148" t="s">
+      <c r="B41" s="149" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="24" t="s">
@@ -6469,7 +6469,7 @@
     </row>
     <row r="42" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="146"/>
-      <c r="B42" s="148"/>
+      <c r="B42" s="149"/>
       <c r="C42" s="25" t="s">
         <v>168</v>
       </c>
@@ -6486,7 +6486,7 @@
     </row>
     <row r="43" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="146"/>
-      <c r="B43" s="148"/>
+      <c r="B43" s="149"/>
       <c r="C43" s="25" t="s">
         <v>166</v>
       </c>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="147"/>
-      <c r="B44" s="149"/>
+      <c r="B44" s="150"/>
       <c r="C44" s="26" t="s">
         <v>165</v>
       </c>
@@ -6521,7 +6521,7 @@
       <c r="A45" s="145" t="s">
         <v>190</v>
       </c>
-      <c r="B45" s="164" t="s">
+      <c r="B45" s="148" t="s">
         <v>191</v>
       </c>
       <c r="C45" s="25" t="s">
@@ -6539,7 +6539,7 @@
     </row>
     <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="146"/>
-      <c r="B46" s="148"/>
+      <c r="B46" s="149"/>
       <c r="C46" s="25" t="s">
         <v>165</v>
       </c>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="47" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="146"/>
-      <c r="B47" s="148"/>
+      <c r="B47" s="149"/>
       <c r="C47" s="25" t="s">
         <v>171</v>
       </c>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="48" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="147"/>
-      <c r="B48" s="149"/>
+      <c r="B48" s="150"/>
       <c r="C48" s="25" t="s">
         <v>177</v>
       </c>
@@ -6592,7 +6592,7 @@
       <c r="A49" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="148" t="s">
+      <c r="B49" s="149" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="24" t="s">
@@ -6610,7 +6610,7 @@
     </row>
     <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="146"/>
-      <c r="B50" s="148"/>
+      <c r="B50" s="149"/>
       <c r="C50" s="25" t="s">
         <v>179</v>
       </c>
@@ -6627,7 +6627,7 @@
     </row>
     <row r="51" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="146"/>
-      <c r="B51" s="148"/>
+      <c r="B51" s="149"/>
       <c r="C51" s="25" t="s">
         <v>178</v>
       </c>
@@ -6643,7 +6643,7 @@
     </row>
     <row r="52" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="147"/>
-      <c r="B52" s="149"/>
+      <c r="B52" s="150"/>
       <c r="C52" s="26" t="s">
         <v>173</v>
       </c>
@@ -6662,7 +6662,7 @@
       <c r="A53" s="145" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="148" t="s">
+      <c r="B53" s="149" t="s">
         <v>141</v>
       </c>
       <c r="C53" s="25" t="s">
@@ -6680,7 +6680,7 @@
     </row>
     <row r="54" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="146"/>
-      <c r="B54" s="148"/>
+      <c r="B54" s="149"/>
       <c r="C54" s="25" t="s">
         <v>177</v>
       </c>
@@ -6696,7 +6696,7 @@
     </row>
     <row r="55" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="146"/>
-      <c r="B55" s="148"/>
+      <c r="B55" s="149"/>
       <c r="C55" s="25" t="s">
         <v>168</v>
       </c>
@@ -6712,7 +6712,7 @@
     </row>
     <row r="56" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="147"/>
-      <c r="B56" s="149"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="25" t="s">
         <v>187</v>
       </c>
@@ -6730,7 +6730,7 @@
       <c r="A57" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="148" t="s">
+      <c r="B57" s="149" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="24" t="s">
@@ -6748,7 +6748,7 @@
     </row>
     <row r="58" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="146"/>
-      <c r="B58" s="148"/>
+      <c r="B58" s="149"/>
       <c r="C58" s="25" t="s">
         <v>177</v>
       </c>
@@ -6764,7 +6764,7 @@
     </row>
     <row r="59" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="146"/>
-      <c r="B59" s="148"/>
+      <c r="B59" s="149"/>
       <c r="C59" s="25" t="s">
         <v>183</v>
       </c>
@@ -6780,7 +6780,7 @@
     </row>
     <row r="60" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="147"/>
-      <c r="B60" s="149"/>
+      <c r="B60" s="150"/>
       <c r="C60" s="26" t="s">
         <v>168</v>
       </c>
@@ -6798,7 +6798,7 @@
       <c r="A61" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="148" t="s">
+      <c r="B61" s="149" t="s">
         <v>24</v>
       </c>
       <c r="C61" s="25" t="s">
@@ -6816,7 +6816,7 @@
     </row>
     <row r="62" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="146"/>
-      <c r="B62" s="148"/>
+      <c r="B62" s="149"/>
       <c r="C62" s="25" t="s">
         <v>168</v>
       </c>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="63" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="146"/>
-      <c r="B63" s="148"/>
+      <c r="B63" s="149"/>
       <c r="C63" s="25" t="s">
         <v>173</v>
       </c>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="64" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="147"/>
-      <c r="B64" s="149"/>
+      <c r="B64" s="150"/>
       <c r="C64" s="26" t="s">
         <v>166</v>
       </c>
@@ -6866,7 +6866,7 @@
       <c r="A65" s="145" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="148" t="s">
+      <c r="B65" s="149" t="s">
         <v>143</v>
       </c>
       <c r="C65" s="25" t="s">
@@ -6884,7 +6884,7 @@
     </row>
     <row r="66" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="146"/>
-      <c r="B66" s="148"/>
+      <c r="B66" s="149"/>
       <c r="C66" s="25" t="s">
         <v>187</v>
       </c>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="67" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="146"/>
-      <c r="B67" s="148"/>
+      <c r="B67" s="149"/>
       <c r="C67" s="25" t="s">
         <v>182</v>
       </c>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="147"/>
-      <c r="B68" s="149"/>
+      <c r="B68" s="150"/>
       <c r="C68" s="25" t="s">
         <v>166</v>
       </c>
@@ -6934,7 +6934,7 @@
       <c r="A69" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="148" t="s">
+      <c r="B69" s="149" t="s">
         <v>145</v>
       </c>
       <c r="C69" s="24" t="s">
@@ -6952,7 +6952,7 @@
     </row>
     <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="146"/>
-      <c r="B70" s="148"/>
+      <c r="B70" s="149"/>
       <c r="C70" s="25" t="s">
         <v>168</v>
       </c>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="71" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="146"/>
-      <c r="B71" s="148"/>
+      <c r="B71" s="149"/>
       <c r="C71" s="25" t="s">
         <v>187</v>
       </c>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="72" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="147"/>
-      <c r="B72" s="149"/>
+      <c r="B72" s="150"/>
       <c r="C72" s="25" t="s">
         <v>174</v>
       </c>
@@ -7002,7 +7002,7 @@
       <c r="A73" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="148" t="s">
+      <c r="B73" s="149" t="s">
         <v>28</v>
       </c>
       <c r="C73" s="24" t="s">
@@ -7020,7 +7020,7 @@
     </row>
     <row r="74" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="146"/>
-      <c r="B74" s="148"/>
+      <c r="B74" s="149"/>
       <c r="C74" s="25" t="s">
         <v>178</v>
       </c>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="75" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="146"/>
-      <c r="B75" s="148"/>
+      <c r="B75" s="149"/>
       <c r="C75" s="25" t="s">
         <v>168</v>
       </c>
@@ -7052,7 +7052,7 @@
     </row>
     <row r="76" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="147"/>
-      <c r="B76" s="149"/>
+      <c r="B76" s="150"/>
       <c r="C76" s="26" t="s">
         <v>192</v>
       </c>
@@ -7070,7 +7070,7 @@
       <c r="A77" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="B77" s="148" t="s">
+      <c r="B77" s="149" t="s">
         <v>30</v>
       </c>
       <c r="C77" s="24" t="s">
@@ -7088,7 +7088,7 @@
     </row>
     <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="146"/>
-      <c r="B78" s="148"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="25" t="s">
         <v>166</v>
       </c>
@@ -7104,7 +7104,7 @@
     </row>
     <row r="79" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="146"/>
-      <c r="B79" s="148"/>
+      <c r="B79" s="149"/>
       <c r="C79" s="25" t="s">
         <v>187</v>
       </c>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="147"/>
-      <c r="B80" s="149"/>
+      <c r="B80" s="150"/>
       <c r="C80" s="25" t="s">
         <v>168</v>
       </c>
@@ -7138,7 +7138,7 @@
       <c r="A81" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="148" t="s">
+      <c r="B81" s="149" t="s">
         <v>32</v>
       </c>
       <c r="C81" s="24" t="s">
@@ -7156,7 +7156,7 @@
     </row>
     <row r="82" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="146"/>
-      <c r="B82" s="148"/>
+      <c r="B82" s="149"/>
       <c r="C82" s="25" t="s">
         <v>166</v>
       </c>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="83" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="146"/>
-      <c r="B83" s="148"/>
+      <c r="B83" s="149"/>
       <c r="C83" s="25" t="s">
         <v>183</v>
       </c>
@@ -7188,7 +7188,7 @@
     </row>
     <row r="84" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="147"/>
-      <c r="B84" s="149"/>
+      <c r="B84" s="150"/>
       <c r="C84" s="25" t="s">
         <v>178</v>
       </c>
@@ -7206,7 +7206,7 @@
       <c r="A85" s="145" t="s">
         <v>197</v>
       </c>
-      <c r="B85" s="148" t="s">
+      <c r="B85" s="149" t="s">
         <v>198</v>
       </c>
       <c r="C85" s="24" t="s">
@@ -7224,7 +7224,7 @@
     </row>
     <row r="86" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="146"/>
-      <c r="B86" s="148"/>
+      <c r="B86" s="149"/>
       <c r="C86" s="25" t="s">
         <v>167</v>
       </c>
@@ -7240,7 +7240,7 @@
     </row>
     <row r="87" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="146"/>
-      <c r="B87" s="148"/>
+      <c r="B87" s="149"/>
       <c r="C87" s="25" t="s">
         <v>182</v>
       </c>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="88" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="147"/>
-      <c r="B88" s="149"/>
+      <c r="B88" s="150"/>
       <c r="C88" s="25" t="s">
         <v>179</v>
       </c>
@@ -7274,7 +7274,7 @@
       <c r="A89" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="B89" s="148" t="s">
+      <c r="B89" s="149" t="s">
         <v>34</v>
       </c>
       <c r="C89" s="24" t="s">
@@ -7292,7 +7292,7 @@
     </row>
     <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="146"/>
-      <c r="B90" s="148"/>
+      <c r="B90" s="149"/>
       <c r="C90" s="25" t="s">
         <v>167</v>
       </c>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="91" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="146"/>
-      <c r="B91" s="148"/>
+      <c r="B91" s="149"/>
       <c r="C91" s="25" t="s">
         <v>182</v>
       </c>
@@ -7324,7 +7324,7 @@
     </row>
     <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="147"/>
-      <c r="B92" s="149"/>
+      <c r="B92" s="150"/>
       <c r="C92" s="25" t="s">
         <v>179</v>
       </c>
@@ -7342,7 +7342,7 @@
       <c r="A93" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="B93" s="148" t="s">
+      <c r="B93" s="149" t="s">
         <v>147</v>
       </c>
       <c r="C93" s="24" t="s">
@@ -7360,7 +7360,7 @@
     </row>
     <row r="94" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="146"/>
-      <c r="B94" s="148"/>
+      <c r="B94" s="149"/>
       <c r="C94" s="25" t="s">
         <v>171</v>
       </c>
@@ -7376,7 +7376,7 @@
     </row>
     <row r="95" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="146"/>
-      <c r="B95" s="148"/>
+      <c r="B95" s="149"/>
       <c r="C95" s="25" t="s">
         <v>174</v>
       </c>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="96" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="147"/>
-      <c r="B96" s="149"/>
+      <c r="B96" s="150"/>
       <c r="C96" s="25" t="s">
         <v>168</v>
       </c>
@@ -7410,7 +7410,7 @@
       <c r="A97" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="B97" s="148" t="s">
+      <c r="B97" s="149" t="s">
         <v>36</v>
       </c>
       <c r="C97" s="24" t="s">
@@ -7428,7 +7428,7 @@
     </row>
     <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="146"/>
-      <c r="B98" s="148"/>
+      <c r="B98" s="149"/>
       <c r="C98" s="25" t="s">
         <v>192</v>
       </c>
@@ -7444,7 +7444,7 @@
     </row>
     <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="146"/>
-      <c r="B99" s="148"/>
+      <c r="B99" s="149"/>
       <c r="C99" s="25" t="s">
         <v>177</v>
       </c>
@@ -7460,7 +7460,7 @@
     </row>
     <row r="100" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="147"/>
-      <c r="B100" s="149"/>
+      <c r="B100" s="150"/>
       <c r="C100" s="26" t="s">
         <v>174</v>
       </c>
@@ -7478,7 +7478,7 @@
       <c r="A101" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="B101" s="148" t="s">
+      <c r="B101" s="149" t="s">
         <v>38</v>
       </c>
       <c r="C101" s="25" t="s">
@@ -7496,7 +7496,7 @@
     </row>
     <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="146"/>
-      <c r="B102" s="148"/>
+      <c r="B102" s="149"/>
       <c r="C102" s="25" t="s">
         <v>168</v>
       </c>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="103" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="146"/>
-      <c r="B103" s="148"/>
+      <c r="B103" s="149"/>
       <c r="C103" s="25" t="s">
         <v>167</v>
       </c>
@@ -7528,7 +7528,7 @@
     </row>
     <row r="104" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="147"/>
-      <c r="B104" s="149"/>
+      <c r="B104" s="150"/>
       <c r="C104" s="25" t="s">
         <v>179</v>
       </c>
@@ -7546,7 +7546,7 @@
       <c r="A105" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="B105" s="148" t="s">
+      <c r="B105" s="149" t="s">
         <v>40</v>
       </c>
       <c r="C105" s="24" t="s">
@@ -7564,7 +7564,7 @@
     </row>
     <row r="106" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="146"/>
-      <c r="B106" s="148"/>
+      <c r="B106" s="149"/>
       <c r="C106" s="25" t="s">
         <v>182</v>
       </c>
@@ -7580,7 +7580,7 @@
     </row>
     <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="146"/>
-      <c r="B107" s="148"/>
+      <c r="B107" s="149"/>
       <c r="C107" s="25" t="s">
         <v>173</v>
       </c>
@@ -7596,7 +7596,7 @@
     </row>
     <row r="108" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="147"/>
-      <c r="B108" s="149"/>
+      <c r="B108" s="150"/>
       <c r="C108" s="25" t="s">
         <v>179</v>
       </c>
@@ -7614,7 +7614,7 @@
       <c r="A109" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="B109" s="148" t="s">
+      <c r="B109" s="149" t="s">
         <v>42</v>
       </c>
       <c r="C109" s="24" t="s">
@@ -7632,7 +7632,7 @@
     </row>
     <row r="110" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="146"/>
-      <c r="B110" s="148"/>
+      <c r="B110" s="149"/>
       <c r="C110" s="25" t="s">
         <v>174</v>
       </c>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="146"/>
-      <c r="B111" s="148"/>
+      <c r="B111" s="149"/>
       <c r="C111" s="25" t="s">
         <v>183</v>
       </c>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="112" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="147"/>
-      <c r="B112" s="149"/>
+      <c r="B112" s="150"/>
       <c r="C112" s="25" t="s">
         <v>182</v>
       </c>
@@ -7682,7 +7682,7 @@
       <c r="A113" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="B113" s="148" t="s">
+      <c r="B113" s="149" t="s">
         <v>43</v>
       </c>
       <c r="C113" s="24" t="s">
@@ -7700,7 +7700,7 @@
     </row>
     <row r="114" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="146"/>
-      <c r="B114" s="148"/>
+      <c r="B114" s="149"/>
       <c r="C114" s="25" t="s">
         <v>168</v>
       </c>
@@ -7716,7 +7716,7 @@
     </row>
     <row r="115" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="146"/>
-      <c r="B115" s="148"/>
+      <c r="B115" s="149"/>
       <c r="C115" s="25" t="s">
         <v>166</v>
       </c>
@@ -7732,7 +7732,7 @@
     </row>
     <row r="116" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="147"/>
-      <c r="B116" s="149"/>
+      <c r="B116" s="150"/>
       <c r="C116" s="25" t="s">
         <v>179</v>
       </c>
@@ -7750,7 +7750,7 @@
       <c r="A117" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="B117" s="148" t="s">
+      <c r="B117" s="149" t="s">
         <v>45</v>
       </c>
       <c r="C117" s="24" t="s">
@@ -7768,7 +7768,7 @@
     </row>
     <row r="118" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="146"/>
-      <c r="B118" s="148"/>
+      <c r="B118" s="149"/>
       <c r="C118" s="25" t="s">
         <v>168</v>
       </c>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="119" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="146"/>
-      <c r="B119" s="148"/>
+      <c r="B119" s="149"/>
       <c r="C119" s="25" t="s">
         <v>178</v>
       </c>
@@ -7800,7 +7800,7 @@
     </row>
     <row r="120" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="147"/>
-      <c r="B120" s="149"/>
+      <c r="B120" s="150"/>
       <c r="C120" s="25" t="s">
         <v>177</v>
       </c>
@@ -7818,7 +7818,7 @@
       <c r="A121" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="B121" s="148" t="s">
+      <c r="B121" s="149" t="s">
         <v>47</v>
       </c>
       <c r="C121" s="24" t="s">
@@ -7836,7 +7836,7 @@
     </row>
     <row r="122" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="146"/>
-      <c r="B122" s="148"/>
+      <c r="B122" s="149"/>
       <c r="C122" s="25" t="s">
         <v>168</v>
       </c>
@@ -7852,7 +7852,7 @@
     </row>
     <row r="123" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="146"/>
-      <c r="B123" s="148"/>
+      <c r="B123" s="149"/>
       <c r="C123" s="25" t="s">
         <v>173</v>
       </c>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="124" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="147"/>
-      <c r="B124" s="149"/>
+      <c r="B124" s="150"/>
       <c r="C124" s="26" t="s">
         <v>177</v>
       </c>
@@ -7886,7 +7886,7 @@
       <c r="A125" s="145" t="s">
         <v>148</v>
       </c>
-      <c r="B125" s="148" t="s">
+      <c r="B125" s="149" t="s">
         <v>149</v>
       </c>
       <c r="C125" s="25" t="s">
@@ -7904,7 +7904,7 @@
     </row>
     <row r="126" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="146"/>
-      <c r="B126" s="148"/>
+      <c r="B126" s="149"/>
       <c r="C126" s="25" t="s">
         <v>183</v>
       </c>
@@ -7920,7 +7920,7 @@
     </row>
     <row r="127" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="146"/>
-      <c r="B127" s="148"/>
+      <c r="B127" s="149"/>
       <c r="C127" s="25" t="s">
         <v>171</v>
       </c>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="128" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="147"/>
-      <c r="B128" s="149"/>
+      <c r="B128" s="150"/>
       <c r="C128" s="25" t="s">
         <v>192</v>
       </c>
@@ -7954,7 +7954,7 @@
       <c r="A129" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="B129" s="148" t="s">
+      <c r="B129" s="149" t="s">
         <v>134</v>
       </c>
       <c r="C129" s="24" t="s">
@@ -7972,7 +7972,7 @@
     </row>
     <row r="130" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="146"/>
-      <c r="B130" s="148"/>
+      <c r="B130" s="149"/>
       <c r="C130" s="25" t="s">
         <v>178</v>
       </c>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="131" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="146"/>
-      <c r="B131" s="148"/>
+      <c r="B131" s="149"/>
       <c r="C131" s="25" t="s">
         <v>180</v>
       </c>
@@ -8004,7 +8004,7 @@
     </row>
     <row r="132" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="147"/>
-      <c r="B132" s="149"/>
+      <c r="B132" s="150"/>
       <c r="C132" s="26" t="s">
         <v>183</v>
       </c>
@@ -8022,7 +8022,7 @@
       <c r="A133" s="145" t="s">
         <v>150</v>
       </c>
-      <c r="B133" s="148" t="s">
+      <c r="B133" s="149" t="s">
         <v>151</v>
       </c>
       <c r="C133" s="25" t="s">
@@ -8040,7 +8040,7 @@
     </row>
     <row r="134" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="146"/>
-      <c r="B134" s="148"/>
+      <c r="B134" s="149"/>
       <c r="C134" s="25" t="s">
         <v>167</v>
       </c>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="135" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="146"/>
-      <c r="B135" s="148"/>
+      <c r="B135" s="149"/>
       <c r="C135" s="25" t="s">
         <v>182</v>
       </c>
@@ -8072,7 +8072,7 @@
     </row>
     <row r="136" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="147"/>
-      <c r="B136" s="149"/>
+      <c r="B136" s="150"/>
       <c r="C136" s="25" t="s">
         <v>192</v>
       </c>
@@ -8090,7 +8090,7 @@
       <c r="A137" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="B137" s="148" t="s">
+      <c r="B137" s="149" t="s">
         <v>50</v>
       </c>
       <c r="C137" s="24" t="s">
@@ -8108,7 +8108,7 @@
     </row>
     <row r="138" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="146"/>
-      <c r="B138" s="148"/>
+      <c r="B138" s="149"/>
       <c r="C138" s="25" t="s">
         <v>168</v>
       </c>
@@ -8124,7 +8124,7 @@
     </row>
     <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="146"/>
-      <c r="B139" s="148"/>
+      <c r="B139" s="149"/>
       <c r="C139" s="25" t="s">
         <v>167</v>
       </c>
@@ -8140,7 +8140,7 @@
     </row>
     <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="147"/>
-      <c r="B140" s="149"/>
+      <c r="B140" s="150"/>
       <c r="C140" s="25" t="s">
         <v>174</v>
       </c>
@@ -8158,7 +8158,7 @@
       <c r="A141" s="145" t="s">
         <v>152</v>
       </c>
-      <c r="B141" s="148" t="s">
+      <c r="B141" s="149" t="s">
         <v>153</v>
       </c>
       <c r="C141" s="24" t="s">
@@ -8176,7 +8176,7 @@
     </row>
     <row r="142" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="146"/>
-      <c r="B142" s="148"/>
+      <c r="B142" s="149"/>
       <c r="C142" s="25" t="s">
         <v>182</v>
       </c>
@@ -8192,7 +8192,7 @@
     </row>
     <row r="143" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="146"/>
-      <c r="B143" s="148"/>
+      <c r="B143" s="149"/>
       <c r="C143" s="25" t="s">
         <v>171</v>
       </c>
@@ -8208,7 +8208,7 @@
     </row>
     <row r="144" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="147"/>
-      <c r="B144" s="149"/>
+      <c r="B144" s="150"/>
       <c r="C144" s="26" t="s">
         <v>174</v>
       </c>
@@ -8226,7 +8226,7 @@
       <c r="A145" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="B145" s="148" t="s">
+      <c r="B145" s="149" t="s">
         <v>52</v>
       </c>
       <c r="C145" s="25" t="s">
@@ -8244,7 +8244,7 @@
     </row>
     <row r="146" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="146"/>
-      <c r="B146" s="148"/>
+      <c r="B146" s="149"/>
       <c r="C146" s="25" t="s">
         <v>166</v>
       </c>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="147" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="146"/>
-      <c r="B147" s="148"/>
+      <c r="B147" s="149"/>
       <c r="C147" s="25" t="s">
         <v>168</v>
       </c>
@@ -8276,7 +8276,7 @@
     </row>
     <row r="148" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="147"/>
-      <c r="B148" s="149"/>
+      <c r="B148" s="150"/>
       <c r="C148" s="26" t="s">
         <v>173</v>
       </c>
@@ -8294,7 +8294,7 @@
       <c r="A149" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="B149" s="148" t="s">
+      <c r="B149" s="149" t="s">
         <v>138</v>
       </c>
       <c r="C149" s="25" t="s">
@@ -8312,7 +8312,7 @@
     </row>
     <row r="150" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="146"/>
-      <c r="B150" s="148"/>
+      <c r="B150" s="149"/>
       <c r="C150" s="25" t="s">
         <v>182</v>
       </c>
@@ -8328,7 +8328,7 @@
     </row>
     <row r="151" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="146"/>
-      <c r="B151" s="148"/>
+      <c r="B151" s="149"/>
       <c r="C151" s="25" t="s">
         <v>177</v>
       </c>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="152" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="147"/>
-      <c r="B152" s="149"/>
+      <c r="B152" s="150"/>
       <c r="C152" s="25" t="s">
         <v>174</v>
       </c>
@@ -8362,7 +8362,7 @@
       <c r="A153" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="B153" s="148" t="s">
+      <c r="B153" s="149" t="s">
         <v>55</v>
       </c>
       <c r="C153" s="24" t="s">
@@ -8380,7 +8380,7 @@
     </row>
     <row r="154" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="146"/>
-      <c r="B154" s="148"/>
+      <c r="B154" s="149"/>
       <c r="C154" s="25" t="s">
         <v>178</v>
       </c>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="155" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="146"/>
-      <c r="B155" s="148"/>
+      <c r="B155" s="149"/>
       <c r="C155" s="25" t="s">
         <v>179</v>
       </c>
@@ -8412,7 +8412,7 @@
     </row>
     <row r="156" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="147"/>
-      <c r="B156" s="149"/>
+      <c r="B156" s="150"/>
       <c r="C156" s="25" t="s">
         <v>177</v>
       </c>
@@ -8430,7 +8430,7 @@
       <c r="A157" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="B157" s="148" t="s">
+      <c r="B157" s="149" t="s">
         <v>57</v>
       </c>
       <c r="C157" s="24" t="s">
@@ -8448,7 +8448,7 @@
     </row>
     <row r="158" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="146"/>
-      <c r="B158" s="148"/>
+      <c r="B158" s="149"/>
       <c r="C158" s="25" t="s">
         <v>168</v>
       </c>
@@ -8464,7 +8464,7 @@
     </row>
     <row r="159" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="146"/>
-      <c r="B159" s="148"/>
+      <c r="B159" s="149"/>
       <c r="C159" s="25" t="s">
         <v>165</v>
       </c>
@@ -8480,7 +8480,7 @@
     </row>
     <row r="160" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="147"/>
-      <c r="B160" s="149"/>
+      <c r="B160" s="150"/>
       <c r="C160" s="25" t="s">
         <v>180</v>
       </c>
@@ -8498,7 +8498,7 @@
       <c r="A161" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="B161" s="148" t="s">
+      <c r="B161" s="149" t="s">
         <v>136</v>
       </c>
       <c r="C161" s="24" t="s">
@@ -8516,7 +8516,7 @@
     </row>
     <row r="162" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="146"/>
-      <c r="B162" s="148"/>
+      <c r="B162" s="149"/>
       <c r="C162" s="25" t="s">
         <v>173</v>
       </c>
@@ -8532,7 +8532,7 @@
     </row>
     <row r="163" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="146"/>
-      <c r="B163" s="148"/>
+      <c r="B163" s="149"/>
       <c r="C163" s="25" t="s">
         <v>182</v>
       </c>
@@ -8548,7 +8548,7 @@
     </row>
     <row r="164" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="147"/>
-      <c r="B164" s="149"/>
+      <c r="B164" s="150"/>
       <c r="C164" s="27" t="s">
         <v>165</v>
       </c>
@@ -8566,7 +8566,7 @@
       <c r="A165" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="B165" s="148" t="s">
+      <c r="B165" s="149" t="s">
         <v>59</v>
       </c>
       <c r="C165" s="28" t="s">
@@ -8584,7 +8584,7 @@
     </row>
     <row r="166" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="146"/>
-      <c r="B166" s="148"/>
+      <c r="B166" s="149"/>
       <c r="C166" s="25" t="s">
         <v>165</v>
       </c>
@@ -8600,7 +8600,7 @@
     </row>
     <row r="167" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="146"/>
-      <c r="B167" s="148"/>
+      <c r="B167" s="149"/>
       <c r="C167" s="25" t="s">
         <v>180</v>
       </c>
@@ -8616,7 +8616,7 @@
     </row>
     <row r="168" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="147"/>
-      <c r="B168" s="149"/>
+      <c r="B168" s="150"/>
       <c r="C168" s="25" t="s">
         <v>173</v>
       </c>
@@ -8634,7 +8634,7 @@
       <c r="A169" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="B169" s="148" t="s">
+      <c r="B169" s="149" t="s">
         <v>61</v>
       </c>
       <c r="C169" s="24" t="s">
@@ -8652,7 +8652,7 @@
     </row>
     <row r="170" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="146"/>
-      <c r="B170" s="148"/>
+      <c r="B170" s="149"/>
       <c r="C170" s="25" t="s">
         <v>174</v>
       </c>
@@ -8668,7 +8668,7 @@
     </row>
     <row r="171" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="146"/>
-      <c r="B171" s="148"/>
+      <c r="B171" s="149"/>
       <c r="C171" s="25" t="s">
         <v>168</v>
       </c>
@@ -8684,7 +8684,7 @@
     </row>
     <row r="172" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="147"/>
-      <c r="B172" s="149"/>
+      <c r="B172" s="150"/>
       <c r="C172" s="26" t="s">
         <v>177</v>
       </c>
@@ -8702,7 +8702,7 @@
       <c r="A173" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="B173" s="148" t="s">
+      <c r="B173" s="149" t="s">
         <v>63</v>
       </c>
       <c r="C173" s="25" t="s">
@@ -8720,7 +8720,7 @@
     </row>
     <row r="174" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="146"/>
-      <c r="B174" s="148"/>
+      <c r="B174" s="149"/>
       <c r="C174" s="25" t="s">
         <v>182</v>
       </c>
@@ -8736,7 +8736,7 @@
     </row>
     <row r="175" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="146"/>
-      <c r="B175" s="148"/>
+      <c r="B175" s="149"/>
       <c r="C175" s="25" t="s">
         <v>192</v>
       </c>
@@ -8752,7 +8752,7 @@
     </row>
     <row r="176" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="147"/>
-      <c r="B176" s="149"/>
+      <c r="B176" s="150"/>
       <c r="C176" s="25" t="s">
         <v>177</v>
       </c>
@@ -8770,7 +8770,7 @@
       <c r="A177" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="B177" s="148" t="s">
+      <c r="B177" s="149" t="s">
         <v>65</v>
       </c>
       <c r="C177" s="24" t="s">
@@ -8788,7 +8788,7 @@
     </row>
     <row r="178" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="146"/>
-      <c r="B178" s="148"/>
+      <c r="B178" s="149"/>
       <c r="C178" s="25" t="s">
         <v>168</v>
       </c>
@@ -8804,7 +8804,7 @@
     </row>
     <row r="179" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="146"/>
-      <c r="B179" s="148"/>
+      <c r="B179" s="149"/>
       <c r="C179" s="25" t="s">
         <v>177</v>
       </c>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="180" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="147"/>
-      <c r="B180" s="149"/>
+      <c r="B180" s="150"/>
       <c r="C180" s="25" t="s">
         <v>166</v>
       </c>
@@ -8838,7 +8838,7 @@
       <c r="A181" s="145" t="s">
         <v>201</v>
       </c>
-      <c r="B181" s="148" t="s">
+      <c r="B181" s="149" t="s">
         <v>202</v>
       </c>
       <c r="C181" s="24" t="s">
@@ -8856,7 +8856,7 @@
     </row>
     <row r="182" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="146"/>
-      <c r="B182" s="148"/>
+      <c r="B182" s="149"/>
       <c r="C182" s="25" t="s">
         <v>187</v>
       </c>
@@ -8872,7 +8872,7 @@
     </row>
     <row r="183" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="146"/>
-      <c r="B183" s="148"/>
+      <c r="B183" s="149"/>
       <c r="C183" s="25" t="s">
         <v>182</v>
       </c>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="184" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="147"/>
-      <c r="B184" s="149"/>
+      <c r="B184" s="150"/>
       <c r="C184" s="25" t="s">
         <v>166</v>
       </c>
@@ -8906,7 +8906,7 @@
       <c r="A185" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="B185" s="148" t="s">
+      <c r="B185" s="149" t="s">
         <v>67</v>
       </c>
       <c r="C185" s="24" t="s">
@@ -8924,7 +8924,7 @@
     </row>
     <row r="186" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="146"/>
-      <c r="B186" s="148"/>
+      <c r="B186" s="149"/>
       <c r="C186" s="25" t="s">
         <v>179</v>
       </c>
@@ -8940,7 +8940,7 @@
     </row>
     <row r="187" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="146"/>
-      <c r="B187" s="148"/>
+      <c r="B187" s="149"/>
       <c r="C187" s="25" t="s">
         <v>178</v>
       </c>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="188" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="147"/>
-      <c r="B188" s="149"/>
+      <c r="B188" s="150"/>
       <c r="C188" s="25" t="s">
         <v>174</v>
       </c>
@@ -8974,7 +8974,7 @@
       <c r="A189" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="B189" s="148" t="s">
+      <c r="B189" s="149" t="s">
         <v>69</v>
       </c>
       <c r="C189" s="24" t="s">
@@ -8992,7 +8992,7 @@
     </row>
     <row r="190" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="146"/>
-      <c r="B190" s="148"/>
+      <c r="B190" s="149"/>
       <c r="C190" s="25" t="s">
         <v>179</v>
       </c>
@@ -9008,7 +9008,7 @@
     </row>
     <row r="191" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="146"/>
-      <c r="B191" s="148"/>
+      <c r="B191" s="149"/>
       <c r="C191" s="25" t="s">
         <v>174</v>
       </c>
@@ -9024,7 +9024,7 @@
     </row>
     <row r="192" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="147"/>
-      <c r="B192" s="149"/>
+      <c r="B192" s="150"/>
       <c r="C192" s="25" t="s">
         <v>183</v>
       </c>
@@ -9042,7 +9042,7 @@
       <c r="A193" s="145" t="s">
         <v>139</v>
       </c>
-      <c r="B193" s="148" t="s">
+      <c r="B193" s="149" t="s">
         <v>70</v>
       </c>
       <c r="C193" s="24" t="s">
@@ -9060,7 +9060,7 @@
     </row>
     <row r="194" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="146"/>
-      <c r="B194" s="148"/>
+      <c r="B194" s="149"/>
       <c r="C194" s="25" t="s">
         <v>177</v>
       </c>
@@ -9076,7 +9076,7 @@
     </row>
     <row r="195" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="146"/>
-      <c r="B195" s="148"/>
+      <c r="B195" s="149"/>
       <c r="C195" s="25" t="s">
         <v>173</v>
       </c>
@@ -9092,7 +9092,7 @@
     </row>
     <row r="196" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="147"/>
-      <c r="B196" s="149"/>
+      <c r="B196" s="150"/>
       <c r="C196" s="25" t="s">
         <v>166</v>
       </c>
@@ -9110,7 +9110,7 @@
       <c r="A197" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="B197" s="148" t="s">
+      <c r="B197" s="149" t="s">
         <v>72</v>
       </c>
       <c r="C197" s="24" t="s">
@@ -9128,7 +9128,7 @@
     </row>
     <row r="198" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="146"/>
-      <c r="B198" s="148"/>
+      <c r="B198" s="149"/>
       <c r="C198" s="25" t="s">
         <v>180</v>
       </c>
@@ -9144,7 +9144,7 @@
     </row>
     <row r="199" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="146"/>
-      <c r="B199" s="148"/>
+      <c r="B199" s="149"/>
       <c r="C199" s="25" t="s">
         <v>177</v>
       </c>
@@ -9160,7 +9160,7 @@
     </row>
     <row r="200" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="147"/>
-      <c r="B200" s="149"/>
+      <c r="B200" s="150"/>
       <c r="C200" s="25" t="s">
         <v>166</v>
       </c>
@@ -9178,7 +9178,7 @@
       <c r="A201" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="B201" s="148" t="s">
+      <c r="B201" s="149" t="s">
         <v>74</v>
       </c>
       <c r="C201" s="24" t="s">
@@ -9196,7 +9196,7 @@
     </row>
     <row r="202" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="146"/>
-      <c r="B202" s="148"/>
+      <c r="B202" s="149"/>
       <c r="C202" s="25" t="s">
         <v>168</v>
       </c>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="203" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="146"/>
-      <c r="B203" s="148"/>
+      <c r="B203" s="149"/>
       <c r="C203" s="25" t="s">
         <v>166</v>
       </c>
@@ -9228,7 +9228,7 @@
     </row>
     <row r="204" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="147"/>
-      <c r="B204" s="149"/>
+      <c r="B204" s="150"/>
       <c r="C204" s="26" t="s">
         <v>178</v>
       </c>
@@ -9246,7 +9246,7 @@
       <c r="A205" s="145" t="s">
         <v>75</v>
       </c>
-      <c r="B205" s="164" t="s">
+      <c r="B205" s="148" t="s">
         <v>76</v>
       </c>
       <c r="C205" s="25" t="s">
@@ -9264,7 +9264,7 @@
     </row>
     <row r="206" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="146"/>
-      <c r="B206" s="148"/>
+      <c r="B206" s="149"/>
       <c r="C206" s="25" t="s">
         <v>166</v>
       </c>
@@ -9280,7 +9280,7 @@
     </row>
     <row r="207" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="146"/>
-      <c r="B207" s="148"/>
+      <c r="B207" s="149"/>
       <c r="C207" s="25" t="s">
         <v>180</v>
       </c>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="208" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="147"/>
-      <c r="B208" s="149"/>
+      <c r="B208" s="150"/>
       <c r="C208" s="26" t="s">
         <v>187</v>
       </c>
@@ -9314,7 +9314,7 @@
       <c r="A209" s="145" t="s">
         <v>154</v>
       </c>
-      <c r="B209" s="164" t="s">
+      <c r="B209" s="148" t="s">
         <v>155</v>
       </c>
       <c r="C209" s="25" t="s">
@@ -9332,7 +9332,7 @@
     </row>
     <row r="210" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="146"/>
-      <c r="B210" s="148"/>
+      <c r="B210" s="149"/>
       <c r="C210" s="25" t="s">
         <v>167</v>
       </c>
@@ -9348,7 +9348,7 @@
     </row>
     <row r="211" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="146"/>
-      <c r="B211" s="148"/>
+      <c r="B211" s="149"/>
       <c r="C211" s="25" t="s">
         <v>177</v>
       </c>
@@ -9364,7 +9364,7 @@
     </row>
     <row r="212" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="147"/>
-      <c r="B212" s="149"/>
+      <c r="B212" s="150"/>
       <c r="C212" s="25" t="s">
         <v>168</v>
       </c>
@@ -9382,7 +9382,7 @@
       <c r="A213" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="B213" s="164" t="s">
+      <c r="B213" s="148" t="s">
         <v>78</v>
       </c>
       <c r="C213" s="24" t="s">
@@ -9400,7 +9400,7 @@
     </row>
     <row r="214" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="146"/>
-      <c r="B214" s="148"/>
+      <c r="B214" s="149"/>
       <c r="C214" s="25" t="s">
         <v>168</v>
       </c>
@@ -9416,7 +9416,7 @@
     </row>
     <row r="215" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="146"/>
-      <c r="B215" s="148"/>
+      <c r="B215" s="149"/>
       <c r="C215" s="25" t="s">
         <v>171</v>
       </c>
@@ -9432,7 +9432,7 @@
     </row>
     <row r="216" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="147"/>
-      <c r="B216" s="149"/>
+      <c r="B216" s="150"/>
       <c r="C216" s="25" t="s">
         <v>166</v>
       </c>
@@ -9450,7 +9450,7 @@
       <c r="A217" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="B217" s="164" t="s">
+      <c r="B217" s="148" t="s">
         <v>80</v>
       </c>
       <c r="C217" s="24" t="s">
@@ -9468,7 +9468,7 @@
     </row>
     <row r="218" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="146"/>
-      <c r="B218" s="148"/>
+      <c r="B218" s="149"/>
       <c r="C218" s="25" t="s">
         <v>168</v>
       </c>
@@ -9484,7 +9484,7 @@
     </row>
     <row r="219" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="146"/>
-      <c r="B219" s="148"/>
+      <c r="B219" s="149"/>
       <c r="C219" s="25" t="s">
         <v>183</v>
       </c>
@@ -9500,7 +9500,7 @@
     </row>
     <row r="220" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="147"/>
-      <c r="B220" s="149"/>
+      <c r="B220" s="150"/>
       <c r="C220" s="25" t="s">
         <v>171</v>
       </c>
@@ -9518,7 +9518,7 @@
       <c r="A221" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="B221" s="164" t="s">
+      <c r="B221" s="148" t="s">
         <v>82</v>
       </c>
       <c r="C221" s="24" t="s">
@@ -9536,7 +9536,7 @@
     </row>
     <row r="222" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="146"/>
-      <c r="B222" s="148"/>
+      <c r="B222" s="149"/>
       <c r="C222" s="25" t="s">
         <v>182</v>
       </c>
@@ -9552,7 +9552,7 @@
     </row>
     <row r="223" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="146"/>
-      <c r="B223" s="148"/>
+      <c r="B223" s="149"/>
       <c r="C223" s="25" t="s">
         <v>177</v>
       </c>
@@ -9568,7 +9568,7 @@
     </row>
     <row r="224" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="147"/>
-      <c r="B224" s="149"/>
+      <c r="B224" s="150"/>
       <c r="C224" s="25" t="s">
         <v>187</v>
       </c>
@@ -9586,7 +9586,7 @@
       <c r="A225" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="B225" s="164" t="s">
+      <c r="B225" s="148" t="s">
         <v>84</v>
       </c>
       <c r="C225" s="24" t="s">
@@ -9604,7 +9604,7 @@
     </row>
     <row r="226" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="146"/>
-      <c r="B226" s="148"/>
+      <c r="B226" s="149"/>
       <c r="C226" s="25" t="s">
         <v>171</v>
       </c>
@@ -9620,7 +9620,7 @@
     </row>
     <row r="227" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="146"/>
-      <c r="B227" s="148"/>
+      <c r="B227" s="149"/>
       <c r="C227" s="25" t="s">
         <v>166</v>
       </c>
@@ -9636,7 +9636,7 @@
     </row>
     <row r="228" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="147"/>
-      <c r="B228" s="149"/>
+      <c r="B228" s="150"/>
       <c r="C228" s="26" t="s">
         <v>168</v>
       </c>
@@ -9654,7 +9654,7 @@
       <c r="A229" s="145" t="s">
         <v>156</v>
       </c>
-      <c r="B229" s="164" t="s">
+      <c r="B229" s="148" t="s">
         <v>157</v>
       </c>
       <c r="C229" s="25" t="s">
@@ -9672,7 +9672,7 @@
     </row>
     <row r="230" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="146"/>
-      <c r="B230" s="148"/>
+      <c r="B230" s="149"/>
       <c r="C230" s="25" t="s">
         <v>182</v>
       </c>
@@ -9688,7 +9688,7 @@
     </row>
     <row r="231" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="146"/>
-      <c r="B231" s="148"/>
+      <c r="B231" s="149"/>
       <c r="C231" s="25" t="s">
         <v>187</v>
       </c>
@@ -9704,7 +9704,7 @@
     </row>
     <row r="232" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="147"/>
-      <c r="B232" s="149"/>
+      <c r="B232" s="150"/>
       <c r="C232" s="25" t="s">
         <v>179</v>
       </c>
@@ -9722,7 +9722,7 @@
       <c r="A233" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="B233" s="164" t="s">
+      <c r="B233" s="148" t="s">
         <v>86</v>
       </c>
       <c r="C233" s="24" t="s">
@@ -9740,7 +9740,7 @@
     </row>
     <row r="234" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="146"/>
-      <c r="B234" s="148"/>
+      <c r="B234" s="149"/>
       <c r="C234" s="25" t="s">
         <v>166</v>
       </c>
@@ -9756,7 +9756,7 @@
     </row>
     <row r="235" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="146"/>
-      <c r="B235" s="148"/>
+      <c r="B235" s="149"/>
       <c r="C235" s="25" t="s">
         <v>182</v>
       </c>
@@ -9772,7 +9772,7 @@
     </row>
     <row r="236" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="147"/>
-      <c r="B236" s="149"/>
+      <c r="B236" s="150"/>
       <c r="C236" s="26" t="s">
         <v>192</v>
       </c>
@@ -9790,7 +9790,7 @@
       <c r="A237" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="B237" s="164" t="s">
+      <c r="B237" s="148" t="s">
         <v>88</v>
       </c>
       <c r="C237" s="25" t="s">
@@ -9808,7 +9808,7 @@
     </row>
     <row r="238" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="146"/>
-      <c r="B238" s="148"/>
+      <c r="B238" s="149"/>
       <c r="C238" s="25" t="s">
         <v>192</v>
       </c>
@@ -9824,7 +9824,7 @@
     </row>
     <row r="239" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="146"/>
-      <c r="B239" s="148"/>
+      <c r="B239" s="149"/>
       <c r="C239" s="25" t="s">
         <v>168</v>
       </c>
@@ -9840,7 +9840,7 @@
     </row>
     <row r="240" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="147"/>
-      <c r="B240" s="149"/>
+      <c r="B240" s="150"/>
       <c r="C240" s="25" t="s">
         <v>183</v>
       </c>
@@ -9858,7 +9858,7 @@
       <c r="A241" s="145" t="s">
         <v>89</v>
       </c>
-      <c r="B241" s="164" t="s">
+      <c r="B241" s="148" t="s">
         <v>90</v>
       </c>
       <c r="C241" s="24" t="s">
@@ -9876,7 +9876,7 @@
     </row>
     <row r="242" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="146"/>
-      <c r="B242" s="148"/>
+      <c r="B242" s="149"/>
       <c r="C242" s="25" t="s">
         <v>180</v>
       </c>
@@ -9892,7 +9892,7 @@
     </row>
     <row r="243" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="146"/>
-      <c r="B243" s="148"/>
+      <c r="B243" s="149"/>
       <c r="C243" s="25" t="s">
         <v>192</v>
       </c>
@@ -9908,7 +9908,7 @@
     </row>
     <row r="244" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="147"/>
-      <c r="B244" s="149"/>
+      <c r="B244" s="150"/>
       <c r="C244" s="26" t="s">
         <v>183</v>
       </c>
@@ -9926,7 +9926,7 @@
       <c r="A245" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="B245" s="164" t="s">
+      <c r="B245" s="148" t="s">
         <v>92</v>
       </c>
       <c r="C245" s="25" t="s">
@@ -9944,7 +9944,7 @@
     </row>
     <row r="246" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="146"/>
-      <c r="B246" s="148"/>
+      <c r="B246" s="149"/>
       <c r="C246" s="25" t="s">
         <v>177</v>
       </c>
@@ -9960,7 +9960,7 @@
     </row>
     <row r="247" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="146"/>
-      <c r="B247" s="148"/>
+      <c r="B247" s="149"/>
       <c r="C247" s="25" t="s">
         <v>167</v>
       </c>
@@ -9976,7 +9976,7 @@
     </row>
     <row r="248" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="147"/>
-      <c r="B248" s="149"/>
+      <c r="B248" s="150"/>
       <c r="C248" s="25" t="s">
         <v>166</v>
       </c>
@@ -9994,7 +9994,7 @@
       <c r="A249" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="B249" s="164" t="s">
+      <c r="B249" s="148" t="s">
         <v>94</v>
       </c>
       <c r="C249" s="24" t="s">
@@ -10012,7 +10012,7 @@
     </row>
     <row r="250" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="146"/>
-      <c r="B250" s="148"/>
+      <c r="B250" s="149"/>
       <c r="C250" s="25" t="s">
         <v>179</v>
       </c>
@@ -10028,7 +10028,7 @@
     </row>
     <row r="251" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="146"/>
-      <c r="B251" s="148"/>
+      <c r="B251" s="149"/>
       <c r="C251" s="25" t="s">
         <v>174</v>
       </c>
@@ -10044,7 +10044,7 @@
     </row>
     <row r="252" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="147"/>
-      <c r="B252" s="149"/>
+      <c r="B252" s="150"/>
       <c r="C252" s="25" t="s">
         <v>166</v>
       </c>
@@ -10062,7 +10062,7 @@
       <c r="A253" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="B253" s="164" t="s">
+      <c r="B253" s="148" t="s">
         <v>96</v>
       </c>
       <c r="C253" s="24" t="s">
@@ -10080,7 +10080,7 @@
     </row>
     <row r="254" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="146"/>
-      <c r="B254" s="148"/>
+      <c r="B254" s="149"/>
       <c r="C254" s="25" t="s">
         <v>166</v>
       </c>
@@ -10096,7 +10096,7 @@
     </row>
     <row r="255" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="146"/>
-      <c r="B255" s="148"/>
+      <c r="B255" s="149"/>
       <c r="C255" s="25" t="s">
         <v>187</v>
       </c>
@@ -10112,7 +10112,7 @@
     </row>
     <row r="256" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="147"/>
-      <c r="B256" s="149"/>
+      <c r="B256" s="150"/>
       <c r="C256" s="26" t="s">
         <v>177</v>
       </c>
@@ -10130,7 +10130,7 @@
       <c r="A257" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="B257" s="164" t="s">
+      <c r="B257" s="148" t="s">
         <v>98</v>
       </c>
       <c r="C257" s="25" t="s">
@@ -10148,7 +10148,7 @@
     </row>
     <row r="258" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="146"/>
-      <c r="B258" s="148"/>
+      <c r="B258" s="149"/>
       <c r="C258" s="25" t="s">
         <v>180</v>
       </c>
@@ -10164,7 +10164,7 @@
     </row>
     <row r="259" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="146"/>
-      <c r="B259" s="148"/>
+      <c r="B259" s="149"/>
       <c r="C259" s="25" t="s">
         <v>168</v>
       </c>
@@ -10180,7 +10180,7 @@
     </row>
     <row r="260" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="147"/>
-      <c r="B260" s="149"/>
+      <c r="B260" s="150"/>
       <c r="C260" s="25" t="s">
         <v>166</v>
       </c>
@@ -10198,7 +10198,7 @@
       <c r="A261" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="B261" s="164" t="s">
+      <c r="B261" s="148" t="s">
         <v>100</v>
       </c>
       <c r="C261" s="24" t="s">
@@ -10216,7 +10216,7 @@
     </row>
     <row r="262" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="146"/>
-      <c r="B262" s="148"/>
+      <c r="B262" s="149"/>
       <c r="C262" s="25" t="s">
         <v>166</v>
       </c>
@@ -10232,7 +10232,7 @@
     </row>
     <row r="263" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="146"/>
-      <c r="B263" s="148"/>
+      <c r="B263" s="149"/>
       <c r="C263" s="25" t="s">
         <v>177</v>
       </c>
@@ -10248,7 +10248,7 @@
     </row>
     <row r="264" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="147"/>
-      <c r="B264" s="149"/>
+      <c r="B264" s="150"/>
       <c r="C264" s="25" t="s">
         <v>182</v>
       </c>
@@ -10266,7 +10266,7 @@
       <c r="A265" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="B265" s="164" t="s">
+      <c r="B265" s="148" t="s">
         <v>102</v>
       </c>
       <c r="C265" s="24" t="s">
@@ -10284,7 +10284,7 @@
     </row>
     <row r="266" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="146"/>
-      <c r="B266" s="148"/>
+      <c r="B266" s="149"/>
       <c r="C266" s="25" t="s">
         <v>171</v>
       </c>
@@ -10300,7 +10300,7 @@
     </row>
     <row r="267" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="146"/>
-      <c r="B267" s="148"/>
+      <c r="B267" s="149"/>
       <c r="C267" s="25" t="s">
         <v>179</v>
       </c>
@@ -10316,7 +10316,7 @@
     </row>
     <row r="268" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="147"/>
-      <c r="B268" s="149"/>
+      <c r="B268" s="150"/>
       <c r="C268" s="25" t="s">
         <v>166</v>
       </c>
@@ -10334,7 +10334,7 @@
       <c r="A269" s="145" t="s">
         <v>103</v>
       </c>
-      <c r="B269" s="164" t="s">
+      <c r="B269" s="148" t="s">
         <v>104</v>
       </c>
       <c r="C269" s="24" t="s">
@@ -10352,7 +10352,7 @@
     </row>
     <row r="270" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="146"/>
-      <c r="B270" s="148"/>
+      <c r="B270" s="149"/>
       <c r="C270" s="25" t="s">
         <v>180</v>
       </c>
@@ -10368,7 +10368,7 @@
     </row>
     <row r="271" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="146"/>
-      <c r="B271" s="148"/>
+      <c r="B271" s="149"/>
       <c r="C271" s="25" t="s">
         <v>192</v>
       </c>
@@ -10384,7 +10384,7 @@
     </row>
     <row r="272" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="147"/>
-      <c r="B272" s="149"/>
+      <c r="B272" s="150"/>
       <c r="C272" s="25" t="s">
         <v>178</v>
       </c>
@@ -10402,7 +10402,7 @@
       <c r="A273" s="145" t="s">
         <v>158</v>
       </c>
-      <c r="B273" s="164" t="s">
+      <c r="B273" s="148" t="s">
         <v>159</v>
       </c>
       <c r="C273" s="24" t="s">
@@ -10420,7 +10420,7 @@
     </row>
     <row r="274" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="146"/>
-      <c r="B274" s="148"/>
+      <c r="B274" s="149"/>
       <c r="C274" s="25" t="s">
         <v>177</v>
       </c>
@@ -10436,7 +10436,7 @@
     </row>
     <row r="275" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="146"/>
-      <c r="B275" s="148"/>
+      <c r="B275" s="149"/>
       <c r="C275" s="25" t="s">
         <v>168</v>
       </c>
@@ -10452,7 +10452,7 @@
     </row>
     <row r="276" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="147"/>
-      <c r="B276" s="149"/>
+      <c r="B276" s="150"/>
       <c r="C276" s="25" t="s">
         <v>179</v>
       </c>
@@ -10470,7 +10470,7 @@
       <c r="A277" s="145" t="s">
         <v>105</v>
       </c>
-      <c r="B277" s="164" t="s">
+      <c r="B277" s="148" t="s">
         <v>106</v>
       </c>
       <c r="C277" s="24" t="s">
@@ -10488,7 +10488,7 @@
     </row>
     <row r="278" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="146"/>
-      <c r="B278" s="148"/>
+      <c r="B278" s="149"/>
       <c r="C278" s="25" t="s">
         <v>177</v>
       </c>
@@ -10504,7 +10504,7 @@
     </row>
     <row r="279" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="146"/>
-      <c r="B279" s="148"/>
+      <c r="B279" s="149"/>
       <c r="C279" s="25" t="s">
         <v>167</v>
       </c>
@@ -10520,7 +10520,7 @@
     </row>
     <row r="280" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="147"/>
-      <c r="B280" s="149"/>
+      <c r="B280" s="150"/>
       <c r="C280" s="26" t="s">
         <v>166</v>
       </c>
@@ -10538,7 +10538,7 @@
       <c r="A281" s="145" t="s">
         <v>107</v>
       </c>
-      <c r="B281" s="164" t="s">
+      <c r="B281" s="148" t="s">
         <v>108</v>
       </c>
       <c r="C281" s="25" t="s">
@@ -10556,7 +10556,7 @@
     </row>
     <row r="282" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="146"/>
-      <c r="B282" s="148"/>
+      <c r="B282" s="149"/>
       <c r="C282" s="25" t="s">
         <v>180</v>
       </c>
@@ -10572,7 +10572,7 @@
     </row>
     <row r="283" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="146"/>
-      <c r="B283" s="148"/>
+      <c r="B283" s="149"/>
       <c r="C283" s="25" t="s">
         <v>171</v>
       </c>
@@ -10588,7 +10588,7 @@
     </row>
     <row r="284" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="147"/>
-      <c r="B284" s="149"/>
+      <c r="B284" s="150"/>
       <c r="C284" s="25" t="s">
         <v>165</v>
       </c>
@@ -10606,7 +10606,7 @@
       <c r="A285" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="B285" s="164" t="s">
+      <c r="B285" s="148" t="s">
         <v>110</v>
       </c>
       <c r="C285" s="24" t="s">
@@ -10624,7 +10624,7 @@
     </row>
     <row r="286" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="146"/>
-      <c r="B286" s="148"/>
+      <c r="B286" s="149"/>
       <c r="C286" s="25" t="s">
         <v>173</v>
       </c>
@@ -10640,7 +10640,7 @@
     </row>
     <row r="287" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="146"/>
-      <c r="B287" s="148"/>
+      <c r="B287" s="149"/>
       <c r="C287" s="25" t="s">
         <v>168</v>
       </c>
@@ -10656,7 +10656,7 @@
     </row>
     <row r="288" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="147"/>
-      <c r="B288" s="149"/>
+      <c r="B288" s="150"/>
       <c r="C288" s="25" t="s">
         <v>174</v>
       </c>
@@ -10674,7 +10674,7 @@
       <c r="A289" s="145" t="s">
         <v>111</v>
       </c>
-      <c r="B289" s="164" t="s">
+      <c r="B289" s="148" t="s">
         <v>112</v>
       </c>
       <c r="C289" s="24" t="s">
@@ -10692,7 +10692,7 @@
     </row>
     <row r="290" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="146"/>
-      <c r="B290" s="148"/>
+      <c r="B290" s="149"/>
       <c r="C290" s="25" t="s">
         <v>168</v>
       </c>
@@ -10708,7 +10708,7 @@
     </row>
     <row r="291" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="146"/>
-      <c r="B291" s="148"/>
+      <c r="B291" s="149"/>
       <c r="C291" s="25" t="s">
         <v>183</v>
       </c>
@@ -10724,7 +10724,7 @@
     </row>
     <row r="292" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="147"/>
-      <c r="B292" s="149"/>
+      <c r="B292" s="150"/>
       <c r="C292" s="25" t="s">
         <v>166</v>
       </c>
@@ -10742,7 +10742,7 @@
       <c r="A293" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="B293" s="164" t="s">
+      <c r="B293" s="148" t="s">
         <v>114</v>
       </c>
       <c r="C293" s="24" t="s">
@@ -10760,7 +10760,7 @@
     </row>
     <row r="294" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="146"/>
-      <c r="B294" s="148"/>
+      <c r="B294" s="149"/>
       <c r="C294" s="25" t="s">
         <v>192</v>
       </c>
@@ -10776,7 +10776,7 @@
     </row>
     <row r="295" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="146"/>
-      <c r="B295" s="148"/>
+      <c r="B295" s="149"/>
       <c r="C295" s="25" t="s">
         <v>178</v>
       </c>
@@ -10792,7 +10792,7 @@
     </row>
     <row r="296" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="147"/>
-      <c r="B296" s="149"/>
+      <c r="B296" s="150"/>
       <c r="C296" s="26" t="s">
         <v>183</v>
       </c>
@@ -10810,7 +10810,7 @@
       <c r="A297" s="145" t="s">
         <v>115</v>
       </c>
-      <c r="B297" s="164" t="s">
+      <c r="B297" s="148" t="s">
         <v>116</v>
       </c>
       <c r="C297" s="25" t="s">
@@ -10828,7 +10828,7 @@
     </row>
     <row r="298" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="146"/>
-      <c r="B298" s="148"/>
+      <c r="B298" s="149"/>
       <c r="C298" s="25" t="s">
         <v>192</v>
       </c>
@@ -10844,7 +10844,7 @@
     </row>
     <row r="299" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="146"/>
-      <c r="B299" s="148"/>
+      <c r="B299" s="149"/>
       <c r="C299" s="25" t="s">
         <v>174</v>
       </c>
@@ -10860,7 +10860,7 @@
     </row>
     <row r="300" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="147"/>
-      <c r="B300" s="149"/>
+      <c r="B300" s="150"/>
       <c r="C300" s="25" t="s">
         <v>187</v>
       </c>
@@ -10878,7 +10878,7 @@
       <c r="A301" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="B301" s="164" t="s">
+      <c r="B301" s="148" t="s">
         <v>118</v>
       </c>
       <c r="C301" s="24" t="s">
@@ -10896,7 +10896,7 @@
     </row>
     <row r="302" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="146"/>
-      <c r="B302" s="148"/>
+      <c r="B302" s="149"/>
       <c r="C302" s="25" t="s">
         <v>182</v>
       </c>
@@ -10912,7 +10912,7 @@
     </row>
     <row r="303" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="146"/>
-      <c r="B303" s="148"/>
+      <c r="B303" s="149"/>
       <c r="C303" s="25" t="s">
         <v>187</v>
       </c>
@@ -10928,7 +10928,7 @@
     </row>
     <row r="304" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="147"/>
-      <c r="B304" s="149"/>
+      <c r="B304" s="150"/>
       <c r="C304" s="25" t="s">
         <v>179</v>
       </c>
@@ -10946,7 +10946,7 @@
       <c r="A305" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="B305" s="164" t="s">
+      <c r="B305" s="148" t="s">
         <v>120</v>
       </c>
       <c r="C305" s="24" t="s">
@@ -10964,7 +10964,7 @@
     </row>
     <row r="306" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="146"/>
-      <c r="B306" s="148"/>
+      <c r="B306" s="149"/>
       <c r="C306" s="25" t="s">
         <v>171</v>
       </c>
@@ -10980,7 +10980,7 @@
     </row>
     <row r="307" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="146"/>
-      <c r="B307" s="148"/>
+      <c r="B307" s="149"/>
       <c r="C307" s="25" t="s">
         <v>168</v>
       </c>
@@ -10996,7 +10996,7 @@
     </row>
     <row r="308" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="147"/>
-      <c r="B308" s="149"/>
+      <c r="B308" s="150"/>
       <c r="C308" s="25" t="s">
         <v>177</v>
       </c>
@@ -11014,7 +11014,7 @@
       <c r="A309" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="B309" s="164" t="s">
+      <c r="B309" s="148" t="s">
         <v>122</v>
       </c>
       <c r="C309" s="24" t="s">
@@ -11032,7 +11032,7 @@
     </row>
     <row r="310" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="146"/>
-      <c r="B310" s="148"/>
+      <c r="B310" s="149"/>
       <c r="C310" s="25" t="s">
         <v>174</v>
       </c>
@@ -11048,7 +11048,7 @@
     </row>
     <row r="311" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="146"/>
-      <c r="B311" s="148"/>
+      <c r="B311" s="149"/>
       <c r="C311" s="25" t="s">
         <v>168</v>
       </c>
@@ -11064,7 +11064,7 @@
     </row>
     <row r="312" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="147"/>
-      <c r="B312" s="149"/>
+      <c r="B312" s="150"/>
       <c r="C312" s="25" t="s">
         <v>173</v>
       </c>
@@ -11082,7 +11082,7 @@
       <c r="A313" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="B313" s="164" t="s">
+      <c r="B313" s="148" t="s">
         <v>124</v>
       </c>
       <c r="C313" s="24" t="s">
@@ -11100,7 +11100,7 @@
     </row>
     <row r="314" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="146"/>
-      <c r="B314" s="148"/>
+      <c r="B314" s="149"/>
       <c r="C314" s="25" t="s">
         <v>168</v>
       </c>
@@ -11116,7 +11116,7 @@
     </row>
     <row r="315" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="146"/>
-      <c r="B315" s="148"/>
+      <c r="B315" s="149"/>
       <c r="C315" s="25" t="s">
         <v>167</v>
       </c>
@@ -11132,7 +11132,7 @@
     </row>
     <row r="316" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="147"/>
-      <c r="B316" s="149"/>
+      <c r="B316" s="150"/>
       <c r="C316" s="25" t="s">
         <v>183</v>
       </c>
@@ -11150,7 +11150,7 @@
       <c r="A317" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="B317" s="164" t="s">
+      <c r="B317" s="148" t="s">
         <v>126</v>
       </c>
       <c r="C317" s="24" t="s">
@@ -11168,7 +11168,7 @@
     </row>
     <row r="318" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="146"/>
-      <c r="B318" s="148"/>
+      <c r="B318" s="149"/>
       <c r="C318" s="25" t="s">
         <v>167</v>
       </c>
@@ -11184,7 +11184,7 @@
     </row>
     <row r="319" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="146"/>
-      <c r="B319" s="148"/>
+      <c r="B319" s="149"/>
       <c r="C319" s="25" t="s">
         <v>168</v>
       </c>
@@ -11201,7 +11201,7 @@
     </row>
     <row r="320" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="147"/>
-      <c r="B320" s="149"/>
+      <c r="B320" s="150"/>
       <c r="C320" s="26" t="s">
         <v>173</v>
       </c>
@@ -11219,7 +11219,7 @@
       <c r="A321" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="B321" s="164" t="s">
+      <c r="B321" s="148" t="s">
         <v>128</v>
       </c>
       <c r="C321" s="25" t="s">
@@ -11237,7 +11237,7 @@
     </row>
     <row r="322" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="146"/>
-      <c r="B322" s="148"/>
+      <c r="B322" s="149"/>
       <c r="C322" s="25" t="s">
         <v>179</v>
       </c>
@@ -11253,7 +11253,7 @@
     </row>
     <row r="323" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="146"/>
-      <c r="B323" s="148"/>
+      <c r="B323" s="149"/>
       <c r="C323" s="25" t="s">
         <v>187</v>
       </c>
@@ -11269,7 +11269,7 @@
     </row>
     <row r="324" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="147"/>
-      <c r="B324" s="149"/>
+      <c r="B324" s="150"/>
       <c r="C324" s="25" t="s">
         <v>182</v>
       </c>
@@ -11287,7 +11287,7 @@
       <c r="A325" s="145" t="s">
         <v>129</v>
       </c>
-      <c r="B325" s="164" t="s">
+      <c r="B325" s="148" t="s">
         <v>130</v>
       </c>
       <c r="C325" s="24" t="s">
@@ -11305,7 +11305,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="146"/>
-      <c r="B326" s="148"/>
+      <c r="B326" s="149"/>
       <c r="C326" s="25" t="s">
         <v>174</v>
       </c>
@@ -11321,7 +11321,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="146"/>
-      <c r="B327" s="148"/>
+      <c r="B327" s="149"/>
       <c r="C327" s="25" t="s">
         <v>167</v>
       </c>
@@ -11337,7 +11337,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="147"/>
-      <c r="B328" s="149"/>
+      <c r="B328" s="150"/>
       <c r="C328" s="25" t="s">
         <v>183</v>
       </c>
@@ -11355,7 +11355,7 @@
       <c r="A329" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="B329" s="164" t="s">
+      <c r="B329" s="148" t="s">
         <v>132</v>
       </c>
       <c r="C329" s="24" t="s">
@@ -11373,7 +11373,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="146"/>
-      <c r="B330" s="148"/>
+      <c r="B330" s="149"/>
       <c r="C330" s="25" t="s">
         <v>187</v>
       </c>
@@ -11389,7 +11389,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="146"/>
-      <c r="B331" s="148"/>
+      <c r="B331" s="149"/>
       <c r="C331" s="25" t="s">
         <v>165</v>
       </c>
@@ -11405,7 +11405,7 @@
     </row>
     <row r="332" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A332" s="147"/>
-      <c r="B332" s="149"/>
+      <c r="B332" s="150"/>
       <c r="C332" s="27" t="s">
         <v>177</v>
       </c>
@@ -11421,6 +11421,154 @@
     </row>
   </sheetData>
   <mergeCells count="172">
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="A189:A192"/>
+    <mergeCell ref="B189:B192"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="A173:A176"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="A209:A212"/>
+    <mergeCell ref="B209:B212"/>
+    <mergeCell ref="A213:A216"/>
+    <mergeCell ref="B213:B216"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="A197:A200"/>
+    <mergeCell ref="B197:B200"/>
+    <mergeCell ref="A201:A204"/>
+    <mergeCell ref="B201:B204"/>
+    <mergeCell ref="A229:A232"/>
+    <mergeCell ref="B229:B232"/>
+    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="B233:B236"/>
+    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="A253:A256"/>
+    <mergeCell ref="B253:B256"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="A261:A264"/>
+    <mergeCell ref="B261:B264"/>
+    <mergeCell ref="A241:A244"/>
+    <mergeCell ref="B241:B244"/>
+    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="B245:B248"/>
+    <mergeCell ref="A249:A252"/>
+    <mergeCell ref="B249:B252"/>
+    <mergeCell ref="B277:B280"/>
+    <mergeCell ref="A281:A284"/>
+    <mergeCell ref="B281:B284"/>
+    <mergeCell ref="A285:A288"/>
+    <mergeCell ref="B285:B288"/>
+    <mergeCell ref="A265:A268"/>
+    <mergeCell ref="B265:B268"/>
+    <mergeCell ref="A269:A272"/>
+    <mergeCell ref="B269:B272"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="B273:B276"/>
     <mergeCell ref="A325:A328"/>
     <mergeCell ref="B325:B328"/>
     <mergeCell ref="A329:A332"/>
@@ -11445,154 +11593,6 @@
     <mergeCell ref="A297:A300"/>
     <mergeCell ref="B297:B300"/>
     <mergeCell ref="A277:A280"/>
-    <mergeCell ref="B277:B280"/>
-    <mergeCell ref="A281:A284"/>
-    <mergeCell ref="B281:B284"/>
-    <mergeCell ref="A285:A288"/>
-    <mergeCell ref="B285:B288"/>
-    <mergeCell ref="A265:A268"/>
-    <mergeCell ref="B265:B268"/>
-    <mergeCell ref="A269:A272"/>
-    <mergeCell ref="B269:B272"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="A253:A256"/>
-    <mergeCell ref="B253:B256"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="A261:A264"/>
-    <mergeCell ref="B261:B264"/>
-    <mergeCell ref="A241:A244"/>
-    <mergeCell ref="B241:B244"/>
-    <mergeCell ref="A245:A248"/>
-    <mergeCell ref="B245:B248"/>
-    <mergeCell ref="A249:A252"/>
-    <mergeCell ref="B249:B252"/>
-    <mergeCell ref="A229:A232"/>
-    <mergeCell ref="B229:B232"/>
-    <mergeCell ref="A233:A236"/>
-    <mergeCell ref="B233:B236"/>
-    <mergeCell ref="A237:A240"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="A209:A212"/>
-    <mergeCell ref="B209:B212"/>
-    <mergeCell ref="A213:A216"/>
-    <mergeCell ref="B213:B216"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="A197:A200"/>
-    <mergeCell ref="B197:B200"/>
-    <mergeCell ref="A201:A204"/>
-    <mergeCell ref="B201:B204"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="A189:A192"/>
-    <mergeCell ref="B189:B192"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="A173:A176"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="B161:B164"/>
-    <mergeCell ref="A165:A168"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="A141:A144"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="A129:A132"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11603,7 +11603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B806908D-8E50-43A0-BE76-1942C16017DF}">
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" sqref="A1:K3"/>
     </sheetView>
@@ -11638,7 +11638,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="139" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -11792,7 +11792,7 @@
         <v>213</v>
       </c>
       <c r="AB4" s="112" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="24.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -18944,7 +18944,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+      <selection pane="topRight" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18962,7 +18962,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="139" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -18985,51 +18985,51 @@
     <row r="3" spans="1:9" s="61" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="99"/>
       <c r="B3" s="99"/>
-      <c r="C3" s="168" t="s">
+      <c r="C3" s="170" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171" t="s">
         <v>268</v>
       </c>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" s="169"/>
-      <c r="G3" s="168" t="s">
+      <c r="F3" s="171"/>
+      <c r="G3" s="170" t="s">
         <v>263</v>
       </c>
-      <c r="H3" s="169"/>
+      <c r="H3" s="171"/>
       <c r="I3" s="130"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="97"/>
       <c r="B4" s="98"/>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="173" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="167" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170" t="s">
-        <v>267</v>
-      </c>
-      <c r="H4" s="170"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="172"/>
     </row>
     <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="97"/>
       <c r="B5" s="98"/>
-      <c r="C5" s="172" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" s="171"/>
-      <c r="E5" s="172" t="s">
-        <v>271</v>
-      </c>
-      <c r="F5" s="173"/>
-      <c r="G5" s="172" t="s">
-        <v>271</v>
-      </c>
-      <c r="H5" s="173"/>
+      <c r="C5" s="167" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="168"/>
+      <c r="E5" s="167" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="169"/>
+      <c r="G5" s="167" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="169"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="100" t="s">
@@ -19039,22 +19039,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="89" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="D6" s="119" t="s">
-        <v>273</v>
-      </c>
-      <c r="E6" s="89" t="s">
+      <c r="F6" s="90" t="s">
+        <v>271</v>
+      </c>
+      <c r="G6" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="F6" s="90" t="s">
-        <v>272</v>
-      </c>
-      <c r="G6" s="89" t="s">
+      <c r="H6" s="124" t="s">
         <v>276</v>
-      </c>
-      <c r="H6" s="124" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="43" customFormat="1" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
